--- a/src/output/cabanaconde.xlsx
+++ b/src/output/cabanaconde.xlsx
@@ -17,13 +17,15 @@
     <sheet name="10" sheetId="8" r:id="rId8"/>
     <sheet name="11" sheetId="9" r:id="rId9"/>
     <sheet name="12" sheetId="10" r:id="rId10"/>
+    <sheet name="resumen" sheetId="11" r:id="rId11"/>
+    <sheet name="desembolso" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="192">
   <si>
     <t>Programación inicial base de actividades 2025 - 240 días calendarios</t>
   </si>
@@ -388,6 +390,9 @@
     <t>Semana 4</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>J</t>
   </si>
   <si>
@@ -409,73 +414,203 @@
     <t>X</t>
   </si>
   <si>
-    <t>Actividades a ejecutar</t>
+    <t>Cronograma de ejecución de actividades mes Junio 2025</t>
+  </si>
+  <si>
+    <t>Mes: Junio</t>
+  </si>
+  <si>
+    <t>Cronograma de ejecución de actividades mes Julio 2025</t>
+  </si>
+  <si>
+    <t>Mes: Julio</t>
+  </si>
+  <si>
+    <t>Cronograma de ejecución de actividades mes Agosto 2025</t>
+  </si>
+  <si>
+    <t>Mes: Agosto</t>
+  </si>
+  <si>
+    <t>Cronograma de ejecución de actividades mes Septiembre 2025</t>
+  </si>
+  <si>
+    <t>Mes: Septiembre</t>
+  </si>
+  <si>
+    <t>Cronograma de ejecución de actividades mes Octubre 2025</t>
+  </si>
+  <si>
+    <t>Mes: Octubre</t>
+  </si>
+  <si>
+    <t>Cronograma de ejecución de actividades mes Noviembre 2025</t>
+  </si>
+  <si>
+    <t>Mes: Noviembre</t>
+  </si>
+  <si>
+    <t>Cronograma de ejecución de actividades mes Diciembre 2025</t>
+  </si>
+  <si>
+    <t>Mes: Diciembre</t>
+  </si>
+  <si>
+    <t>Resumen de programación mensual 2025</t>
+  </si>
+  <si>
+    <t>Formato N° 03.02</t>
+  </si>
+  <si>
+    <t>Rend. Unit./Cuadrilla</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>1.º mes</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>2.º mes</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>3.º mes</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>4.º mes</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>5.º mes</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>6.º mes</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>7.º mes</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>8.º mes</t>
+  </si>
+  <si>
+    <t>Total de cargas de trabajo programado</t>
+  </si>
+  <si>
+    <t>Progresivas</t>
+  </si>
+  <si>
+    <t>00+000 - 14+064</t>
+  </si>
+  <si>
+    <t>Cronograma de desembolso 2025</t>
+  </si>
+  <si>
+    <t>Datos generales</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>Camino Vecinal</t>
+  </si>
+  <si>
+    <t>Contrato</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>Plazo de ejecución</t>
+  </si>
+  <si>
+    <t>Fecha de inicio</t>
+  </si>
+  <si>
+    <t>Monto contratado</t>
+  </si>
+  <si>
+    <t>Adenda</t>
+  </si>
+  <si>
+    <t>Monto adenda</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Cronograma de ejecución de actividades mes Junio 2025</t>
-  </si>
-  <si>
-    <t>Mes: Junio</t>
-  </si>
-  <si>
-    <t>Cronograma de ejecución de actividades mes Julio 2025</t>
-  </si>
-  <si>
-    <t>Mes: Julio</t>
-  </si>
-  <si>
-    <t>Cronograma de ejecución de actividades mes Agosto 2025</t>
-  </si>
-  <si>
-    <t>Mes: Agosto</t>
-  </si>
-  <si>
-    <t>Cronograma de ejecución de actividades mes Septiembre 2025</t>
-  </si>
-  <si>
-    <t>Mes: Septiembre</t>
-  </si>
-  <si>
-    <t>Cronograma de ejecución de actividades mes Octubre 2025</t>
-  </si>
-  <si>
-    <t>Mes: Octubre</t>
-  </si>
-  <si>
-    <t>Cronograma de ejecución de actividades mes Noviembre 2025</t>
-  </si>
-  <si>
-    <t>Mes: Noviembre</t>
-  </si>
-  <si>
-    <t>Cronograma de ejecución de actividades mes Diciembre 2025</t>
-  </si>
-  <si>
-    <t>Mes: Diciembre</t>
+    <t>Arequipa</t>
+  </si>
+  <si>
+    <t>Caylloma</t>
+  </si>
+  <si>
+    <t>Cabanaconde</t>
+  </si>
+  <si>
+    <t>Emp. R0405105(CABANACONDE)-CHOCO(LD.PROV. CASTILLA)</t>
+  </si>
+  <si>
+    <t>001-2025</t>
+  </si>
+  <si>
+    <t>14+064</t>
+  </si>
+  <si>
+    <t>01/05/2025</t>
+  </si>
+  <si>
+    <t>S/. 59504.8</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Programación de gasto 2025</t>
+  </si>
+  <si>
+    <t>Mant.</t>
+  </si>
+  <si>
+    <t>G.O.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;S/.&quot; #,##0.00"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -515,7 +650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF56B4E1"/>
+        <fgColor rgb="FFC5D9F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -565,14 +700,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,6 +731,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00"/>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -2380,7 +2531,7 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2587,7 +2738,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2666,6 +2817,9 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
+      <c r="AK14" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="3"/>
@@ -2673,99 +2827,100 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="M15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="N15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="J15" s="10" t="s">
+      <c r="O15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="Q15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="R15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="S15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="T15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="U15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="P15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q15" s="10" t="s">
+      <c r="V15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="W15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="X15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="S15" s="10" t="s">
+      <c r="Y15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="T15" s="10" t="s">
+      <c r="Z15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="U15" s="10" t="s">
+      <c r="AA15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="V15" s="10" t="s">
+      <c r="AB15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="W15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="X15" s="10" t="s">
+      <c r="AC15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Y15" s="10" t="s">
+      <c r="AE15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Z15" s="10" t="s">
+      <c r="AF15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AA15" s="10" t="s">
+      <c r="AG15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AB15" s="10" t="s">
+      <c r="AH15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AC15" s="10" t="s">
+      <c r="AI15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AD15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE15" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF15" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG15" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH15" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI15" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ15" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="AJ15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK15" s="3"/>
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="3"/>
@@ -2866,9 +3021,12 @@
       <c r="AJ16" s="10">
         <v>31</v>
       </c>
+      <c r="AK16" s="3"/>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
       <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
@@ -2877,42 +3035,10 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="8" t="s">
-        <v>129</v>
+      <c r="A18" s="8">
+        <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>42</v>
@@ -2926,19 +3052,19 @@
       <c r="E18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="11">
         <v>0.3851111111111111</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="11">
         <v>0.3851111111111111</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="11">
         <v>0.3851111111111111</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="11">
         <v>0.3851111111111111</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="11">
         <v>0.3851111111111111</v>
       </c>
       <c r="AK18" s="7">
@@ -2947,8 +3073,8 @@
       </c>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="8" t="s">
-        <v>130</v>
+      <c r="A19" s="8">
+        <v>3</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>45</v>
@@ -2962,25 +3088,25 @@
       <c r="E19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="X19" s="10">
+      <c r="X19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AA19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AB19" s="10">
+      <c r="AB19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AC19" s="10">
+      <c r="AC19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AH19" s="10">
+      <c r="AH19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AI19" s="10">
+      <c r="AI19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AJ19" s="10">
+      <c r="AJ19" s="11">
         <v>30.62966666666667</v>
       </c>
       <c r="AK19" s="7">
@@ -2989,8 +3115,8 @@
       </c>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="8" t="s">
-        <v>131</v>
+      <c r="A20" s="8">
+        <v>4</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>48</v>
@@ -3010,8 +3136,8 @@
       </c>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="8" t="s">
-        <v>132</v>
+      <c r="A21" s="8">
+        <v>5</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>51</v>
@@ -3025,10 +3151,10 @@
       <c r="E21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="11">
         <v>8.505625</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="11">
         <v>8.505625</v>
       </c>
       <c r="AK21" s="7">
@@ -3037,7 +3163,9 @@
       </c>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5">
+        <v>6</v>
+      </c>
       <c r="B22" s="5" t="s">
         <v>53</v>
       </c>
@@ -3048,8 +3176,8 @@
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="8" t="s">
-        <v>129</v>
+      <c r="A23" s="8">
+        <v>7</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>55</v>
@@ -3063,19 +3191,19 @@
       <c r="E23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AB23" s="10">
+      <c r="AB23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="AC23" s="10">
+      <c r="AC23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="AH23" s="10">
+      <c r="AH23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="AI23" s="10">
+      <c r="AI23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="AJ23" s="10">
+      <c r="AJ23" s="11">
         <v>378.7879545454545</v>
       </c>
       <c r="AK23" s="7">
@@ -3084,8 +3212,8 @@
       </c>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="8" t="s">
-        <v>130</v>
+      <c r="A24" s="8">
+        <v>8</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>58</v>
@@ -3101,8 +3229,8 @@
       </c>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="8" t="s">
-        <v>131</v>
+      <c r="A25" s="8">
+        <v>9</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>61</v>
@@ -3116,7 +3244,7 @@
       <c r="E25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="P25" s="10">
+      <c r="P25" s="11">
         <v>42.42454545454546</v>
       </c>
       <c r="AK25" s="7">
@@ -3125,8 +3253,8 @@
       </c>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="8" t="s">
-        <v>132</v>
+      <c r="A26" s="8">
+        <v>10</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>63</v>
@@ -3146,8 +3274,8 @@
       </c>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="8" t="s">
-        <v>133</v>
+      <c r="A27" s="8">
+        <v>11</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>65</v>
@@ -3167,8 +3295,8 @@
       </c>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="8" t="s">
-        <v>134</v>
+      <c r="A28" s="8">
+        <v>12</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>67</v>
@@ -3188,7 +3316,9 @@
       </c>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5">
+        <v>13</v>
+      </c>
       <c r="B29" s="5" t="s">
         <v>69</v>
       </c>
@@ -3199,8 +3329,8 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:37">
-      <c r="A30" s="8" t="s">
-        <v>129</v>
+      <c r="A30" s="8">
+        <v>14</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>71</v>
@@ -3214,19 +3344,19 @@
       <c r="E30" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="11">
         <v>901.6288636363636</v>
       </c>
-      <c r="T30" s="10">
+      <c r="T30" s="11">
         <v>901.6288636363636</v>
       </c>
-      <c r="U30" s="10">
+      <c r="U30" s="11">
         <v>901.6288636363636</v>
       </c>
-      <c r="V30" s="10">
+      <c r="V30" s="11">
         <v>901.6288636363636</v>
       </c>
-      <c r="W30" s="10">
+      <c r="W30" s="11">
         <v>901.6288636363636</v>
       </c>
       <c r="AK30" s="7">
@@ -3235,7 +3365,9 @@
       </c>
     </row>
     <row r="31" spans="1:37">
-      <c r="A31" s="5"/>
+      <c r="A31" s="5">
+        <v>15</v>
+      </c>
       <c r="B31" s="5" t="s">
         <v>73</v>
       </c>
@@ -3246,8 +3378,8 @@
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:37">
-      <c r="A32" s="8" t="s">
-        <v>129</v>
+      <c r="A32" s="8">
+        <v>16</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>75</v>
@@ -3267,7 +3399,9 @@
       </c>
     </row>
     <row r="33" spans="1:37">
-      <c r="A33" s="5"/>
+      <c r="A33" s="5">
+        <v>17</v>
+      </c>
       <c r="B33" s="5" t="s">
         <v>77</v>
       </c>
@@ -3278,8 +3412,8 @@
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:37">
-      <c r="A34" s="8" t="s">
-        <v>129</v>
+      <c r="A34" s="8">
+        <v>18</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>79</v>
@@ -3299,7 +3433,9 @@
       </c>
     </row>
     <row r="35" spans="1:37">
-      <c r="A35" s="5"/>
+      <c r="A35" s="5">
+        <v>19</v>
+      </c>
       <c r="B35" s="5" t="s">
         <v>81</v>
       </c>
@@ -3310,8 +3446,8 @@
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:37">
-      <c r="A36" s="8" t="s">
-        <v>129</v>
+      <c r="A36" s="8">
+        <v>20</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>83</v>
@@ -3325,7 +3461,7 @@
       <c r="E36" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AC36" s="10">
+      <c r="AC36" s="11">
         <v>22.534</v>
       </c>
       <c r="AK36" s="7">
@@ -3334,7 +3470,9 @@
       </c>
     </row>
     <row r="37" spans="1:37">
-      <c r="A37" s="5"/>
+      <c r="A37" s="5">
+        <v>21</v>
+      </c>
       <c r="B37" s="5" t="s">
         <v>85</v>
       </c>
@@ -3345,8 +3483,8 @@
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:37">
-      <c r="A38" s="8" t="s">
-        <v>129</v>
+      <c r="A38" s="8">
+        <v>22</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>87</v>
@@ -3366,8 +3504,8 @@
       </c>
     </row>
     <row r="39" spans="1:37">
-      <c r="A39" s="8" t="s">
-        <v>130</v>
+      <c r="A39" s="8">
+        <v>23</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>89</v>
@@ -3410,13 +3548,1935 @@
     <mergeCell ref="N14:U14"/>
     <mergeCell ref="V14:AC14"/>
     <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="A17:AK17"/>
+    <mergeCell ref="AK14:AK16"/>
   </mergeCells>
   <conditionalFormatting sqref="F17:AK39">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(F17))</formula>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="15" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="11">
+        <f>'5'!AK17</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <f>'6'!AJ17</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <f>'7'!AK17</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <f>'8'!AK17</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <f>'9'!AJ17</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <f>'10'!AK17</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <f>'11'!AJ17</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <f>'12'!AK17</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="8">
+        <v>2</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="11">
+        <f>'5'!AK18</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <f>'6'!AJ18</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <f>'7'!AK18</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <f>'8'!AK18</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <f>'9'!AJ18</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <f>'10'!AK18</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="11">
+        <f>'11'!AJ18</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <f>'12'!AK18</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <f>SUM(F16:M16)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="8">
+        <v>3</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="8">
+        <v>40</v>
+      </c>
+      <c r="F17" s="11">
+        <f>'5'!AK19</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <f>'6'!AJ19</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <f>'7'!AK19</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <f>'8'!AK19</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <f>'9'!AJ19</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <f>'10'!AK19</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <f>'11'!AJ19</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <f>'12'!AK19</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <f>SUM(F17:M17)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="8">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="8">
+        <v>10</v>
+      </c>
+      <c r="F18" s="11">
+        <f>'5'!AK20</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <f>'6'!AJ20</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <f>'7'!AK20</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <f>'8'!AK20</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <f>'9'!AJ20</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
+        <f>'10'!AK20</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
+        <f>'11'!AJ20</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <f>'12'!AK20</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <f>SUM(F18:M18)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="8">
+        <v>5</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="8">
+        <v>12</v>
+      </c>
+      <c r="F19" s="11">
+        <f>'5'!AK21</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <f>'6'!AJ21</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <f>'7'!AK21</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <f>'8'!AK21</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <f>'9'!AJ21</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <f>'10'!AK21</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <f>'11'!AJ21</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <f>'12'!AK21</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <f>SUM(F19:M19)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="5">
+        <v>6</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="11">
+        <f>'5'!AK22</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <f>'6'!AJ22</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <f>'7'!AK22</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <f>'8'!AK22</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
+        <f>'9'!AJ22</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="11">
+        <f>'10'!AK22</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="11">
+        <f>'11'!AJ22</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
+        <f>'12'!AK22</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="8">
+        <v>7</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="8">
+        <v>480</v>
+      </c>
+      <c r="F21" s="11">
+        <f>'5'!AK23</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <f>'6'!AJ23</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <f>'7'!AK23</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <f>'8'!AK23</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <f>'9'!AJ23</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <f>'10'!AK23</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <f>'11'!AJ23</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <f>'12'!AK23</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <f>SUM(F21:M21)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="8">
+        <v>8</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F22" s="11">
+        <f>'5'!AK24</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <f>'6'!AJ24</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <f>'7'!AK24</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <f>'8'!AK24</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <f>'9'!AJ24</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="11">
+        <f>'10'!AK24</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="11">
+        <f>'11'!AJ24</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
+        <f>'12'!AK24</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <f>SUM(F22:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="8">
+        <v>9</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="8">
+        <v>40</v>
+      </c>
+      <c r="F23" s="11">
+        <f>'5'!AK25</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <f>'6'!AJ25</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <f>'7'!AK25</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <f>'8'!AK25</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <f>'9'!AJ25</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <f>'10'!AK25</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <f>'11'!AJ25</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <f>'12'!AK25</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <f>SUM(F23:M23)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="8">
+        <v>10</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="8">
+        <v>160</v>
+      </c>
+      <c r="F24" s="11">
+        <f>'5'!AK26</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <f>'6'!AJ26</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <f>'7'!AK26</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <f>'8'!AK26</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
+        <f>'9'!AJ26</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <f>'10'!AK26</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <f>'11'!AJ26</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
+        <f>'12'!AK26</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <f>SUM(F24:M24)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="8">
+        <v>11</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="11">
+        <f>'5'!AK27</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <f>'6'!AJ27</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <f>'7'!AK27</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <f>'8'!AK27</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <f>'9'!AJ27</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <f>'10'!AK27</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <f>'11'!AJ27</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <f>'12'!AK27</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <f>SUM(F25:M25)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="8">
+        <v>12</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="8">
+        <v>160</v>
+      </c>
+      <c r="F26" s="11">
+        <f>'5'!AK28</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <f>'6'!AJ28</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <f>'7'!AK28</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <f>'8'!AK28</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <f>'9'!AJ28</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <f>'10'!AK28</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <f>'11'!AJ28</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="11">
+        <f>'12'!AK28</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <f>SUM(F26:M26)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="5">
+        <v>13</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="11">
+        <f>'5'!AK29</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <f>'6'!AJ29</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <f>'7'!AK29</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <f>'8'!AK29</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <f>'9'!AJ29</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <f>'10'!AK29</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <f>'11'!AJ29</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <f>'12'!AK29</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="8">
+        <v>14</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1600</v>
+      </c>
+      <c r="F28" s="11">
+        <f>'5'!AK30</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <f>'6'!AJ30</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
+        <f>'7'!AK30</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <f>'8'!AK30</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <f>'9'!AJ30</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <f>'10'!AK30</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <f>'11'!AJ30</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="11">
+        <f>'12'!AK30</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <f>SUM(F28:M28)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="5">
+        <v>15</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="11">
+        <f>'5'!AK31</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <f>'6'!AJ31</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
+        <f>'7'!AK31</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <f>'8'!AK31</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <f>'9'!AJ31</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <f>'10'!AK31</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <f>'11'!AJ31</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <f>'12'!AK31</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="8">
+        <v>16</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="8">
+        <v>200</v>
+      </c>
+      <c r="F30" s="11">
+        <f>'5'!AK32</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <f>'6'!AJ32</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="11">
+        <f>'7'!AK32</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <f>'8'!AK32</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <f>'9'!AJ32</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <f>'10'!AK32</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <f>'11'!AJ32</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <f>'12'!AK32</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <f>SUM(F30:M30)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="5">
+        <v>17</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="11">
+        <f>'5'!AK33</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <f>'6'!AJ33</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <f>'7'!AK33</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <f>'8'!AK33</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <f>'9'!AJ33</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <f>'10'!AK33</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <f>'11'!AJ33</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <f>'12'!AK33</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="8">
+        <v>18</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F32" s="11">
+        <f>'5'!AK34</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <f>'6'!AJ34</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <f>'7'!AK34</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <f>'8'!AK34</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <f>'9'!AJ34</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <f>'10'!AK34</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <f>'11'!AJ34</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <f>'12'!AK34</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <f>SUM(F32:M32)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="5">
+        <v>19</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="11">
+        <f>'5'!AK35</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <f>'6'!AJ35</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="11">
+        <f>'7'!AK35</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <f>'8'!AK35</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <f>'9'!AJ35</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <f>'10'!AK35</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <f>'11'!AJ35</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
+        <f>'12'!AK35</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="8">
+        <v>20</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="8">
+        <v>100</v>
+      </c>
+      <c r="F34" s="11">
+        <f>'5'!AK36</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <f>'6'!AJ36</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <f>'7'!AK36</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <f>'8'!AK36</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <f>'9'!AJ36</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <f>'10'!AK36</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <f>'11'!AJ36</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <f>'12'!AK36</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <f>SUM(F34:M34)</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="5">
+        <v>21</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="11">
+        <f>'5'!AK37</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <f>'6'!AJ37</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
+        <f>'7'!AK37</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <f>'8'!AK37</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
+        <f>'9'!AJ37</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="11">
+        <f>'10'!AK37</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
+        <f>'11'!AJ37</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <f>'12'!AK37</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="8">
+        <v>22</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="F36" s="11">
+        <f>'5'!AK38</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <f>'6'!AJ38</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <f>'7'!AK38</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <f>'8'!AK38</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <f>'9'!AJ38</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <f>'10'!AK38</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <f>'11'!AJ38</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <f>'12'!AK38</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <f>SUM(F36:M36)</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="8">
+        <v>23</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="F37" s="11">
+        <f>'5'!AK39</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <f>'6'!AJ39</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <f>'7'!AK39</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <f>'8'!AK39</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
+        <f>'9'!AJ39</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="11">
+        <f>'10'!AK39</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="11">
+        <f>'11'!AJ39</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="11">
+        <f>'12'!AK39</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <f>SUM(F37:M37)</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="O12:O14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="28" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="30" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+    </row>
+    <row r="3" spans="1:28" ht="40" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+    </row>
+    <row r="4" spans="1:28" ht="40" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB4" s="3"/>
+    </row>
+    <row r="5" spans="1:28" ht="40" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="60" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="13">
+        <v>240</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="M6" s="14">
+        <v>7686.04</v>
+      </c>
+      <c r="N6" s="14">
+        <v>768.604</v>
+      </c>
+      <c r="O6" s="14">
+        <v>7438.1</v>
+      </c>
+      <c r="P6" s="14">
+        <v>743.8100000000001</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>7686.04</v>
+      </c>
+      <c r="R6" s="14">
+        <v>768.604</v>
+      </c>
+      <c r="S6" s="14">
+        <v>7686.04</v>
+      </c>
+      <c r="T6" s="14">
+        <v>768.604</v>
+      </c>
+      <c r="U6" s="14">
+        <v>7438.1</v>
+      </c>
+      <c r="V6" s="14">
+        <v>743.8100000000001</v>
+      </c>
+      <c r="W6" s="14">
+        <v>7686.04</v>
+      </c>
+      <c r="X6" s="14">
+        <v>768.604</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>7438.1</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>743.8100000000001</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>6446.34</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>644.634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="M7" s="14">
+        <v>7686.04</v>
+      </c>
+      <c r="N7" s="14">
+        <v>768.604</v>
+      </c>
+      <c r="O7" s="14">
+        <v>7438.1</v>
+      </c>
+      <c r="P7" s="14">
+        <v>743.8100000000001</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>7686.04</v>
+      </c>
+      <c r="R7" s="14">
+        <v>768.604</v>
+      </c>
+      <c r="S7" s="14">
+        <v>7686.04</v>
+      </c>
+      <c r="T7" s="14">
+        <v>768.604</v>
+      </c>
+      <c r="U7" s="14">
+        <v>7438.1</v>
+      </c>
+      <c r="V7" s="14">
+        <v>743.8100000000001</v>
+      </c>
+      <c r="W7" s="14">
+        <v>7686.04</v>
+      </c>
+      <c r="X7" s="14">
+        <v>768.604</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>7438.1</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>743.8100000000001</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>6446.34</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>644.634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="M8" s="15">
+        <v>8454.644</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15">
+        <v>8181.910000000001</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15">
+        <v>8454.644</v>
+      </c>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15">
+        <v>8454.644</v>
+      </c>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15">
+        <v>8181.910000000001</v>
+      </c>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15">
+        <v>8454.644</v>
+      </c>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15">
+        <v>8181.910000000001</v>
+      </c>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15">
+        <v>7090.974000000001</v>
+      </c>
+      <c r="AB8" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="F3:J4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="M3:AB3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA8:AB8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4472,6 +6532,9 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
+      <c r="AK14" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="3"/>
@@ -4479,99 +6542,100 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="F15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="G15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="H15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="I15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="J15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="K15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="M15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="N15" s="10" t="s">
+      <c r="L15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="N15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="O15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="P15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="Q15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="S15" s="10" t="s">
+      <c r="R15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="T15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="U15" s="10" t="s">
+      <c r="S15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="T15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="V15" s="10" t="s">
+      <c r="U15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="W15" s="10" t="s">
+      <c r="V15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X15" s="10" t="s">
+      <c r="W15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Y15" s="10" t="s">
+      <c r="X15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Z15" s="10" t="s">
+      <c r="Y15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AA15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB15" s="10" t="s">
+      <c r="Z15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AC15" s="10" t="s">
+      <c r="AB15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AD15" s="10" t="s">
+      <c r="AC15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AE15" s="10" t="s">
+      <c r="AD15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AF15" s="10" t="s">
+      <c r="AE15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AG15" s="10" t="s">
+      <c r="AF15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AH15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI15" s="10" t="s">
+      <c r="AG15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AJ15" s="10" t="s">
+      <c r="AI15" s="3" t="s">
         <v>123</v>
       </c>
+      <c r="AJ15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK15" s="3"/>
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="3"/>
@@ -4672,9 +6736,12 @@
       <c r="AJ16" s="10">
         <v>31</v>
       </c>
+      <c r="AK16" s="3"/>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
       <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
@@ -4683,42 +6750,10 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="8" t="s">
-        <v>129</v>
+      <c r="A18" s="8">
+        <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>42</v>
@@ -4732,22 +6767,22 @@
       <c r="E18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="11">
         <v>0.385111111111111</v>
       </c>
       <c r="AK18" s="7">
@@ -4756,8 +6791,8 @@
       </c>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="8" t="s">
-        <v>130</v>
+      <c r="A19" s="8">
+        <v>3</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>45</v>
@@ -4771,28 +6806,28 @@
       <c r="E19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="Z19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AA19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AB19" s="10">
+      <c r="AB19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AE19" s="10">
+      <c r="AE19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AF19" s="10">
+      <c r="AF19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AG19" s="10">
+      <c r="AG19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AH19" s="10">
+      <c r="AH19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AI19" s="10">
+      <c r="AI19" s="11">
         <v>30.62966666666667</v>
       </c>
       <c r="AK19" s="7">
@@ -4801,8 +6836,8 @@
       </c>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="8" t="s">
-        <v>131</v>
+      <c r="A20" s="8">
+        <v>4</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>48</v>
@@ -4822,8 +6857,8 @@
       </c>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="8" t="s">
-        <v>132</v>
+      <c r="A21" s="8">
+        <v>5</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>51</v>
@@ -4837,10 +6872,10 @@
       <c r="E21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="11">
         <v>8.505625</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="11">
         <v>8.505625</v>
       </c>
       <c r="AK21" s="7">
@@ -4849,7 +6884,9 @@
       </c>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5">
+        <v>6</v>
+      </c>
       <c r="B22" s="5" t="s">
         <v>53</v>
       </c>
@@ -4860,8 +6897,8 @@
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="8" t="s">
-        <v>129</v>
+      <c r="A23" s="8">
+        <v>7</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>55</v>
@@ -4875,22 +6912,22 @@
       <c r="E23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="S23" s="10">
+      <c r="S23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="T23" s="10">
+      <c r="T23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="U23" s="10">
+      <c r="U23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="X23" s="10">
+      <c r="X23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="Y23" s="10">
+      <c r="Y23" s="11">
         <v>378.7879545454545</v>
       </c>
       <c r="AK23" s="7">
@@ -4899,8 +6936,8 @@
       </c>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="8" t="s">
-        <v>130</v>
+      <c r="A24" s="8">
+        <v>8</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>58</v>
@@ -4916,8 +6953,8 @@
       </c>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="8" t="s">
-        <v>131</v>
+      <c r="A25" s="8">
+        <v>9</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>61</v>
@@ -4931,10 +6968,10 @@
       <c r="E25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="11">
         <v>42.42454545454546</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="11">
         <v>42.42454545454546</v>
       </c>
       <c r="AK25" s="7">
@@ -4943,8 +6980,8 @@
       </c>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="8" t="s">
-        <v>132</v>
+      <c r="A26" s="8">
+        <v>10</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>63</v>
@@ -4964,8 +7001,8 @@
       </c>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="8" t="s">
-        <v>133</v>
+      <c r="A27" s="8">
+        <v>11</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>65</v>
@@ -4985,8 +7022,8 @@
       </c>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="8" t="s">
-        <v>134</v>
+      <c r="A28" s="8">
+        <v>12</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>67</v>
@@ -5006,7 +7043,9 @@
       </c>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5">
+        <v>13</v>
+      </c>
       <c r="B29" s="5" t="s">
         <v>69</v>
       </c>
@@ -5017,8 +7056,8 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:37">
-      <c r="A30" s="8" t="s">
-        <v>129</v>
+      <c r="A30" s="8">
+        <v>14</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>71</v>
@@ -5032,22 +7071,22 @@
       <c r="E30" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AB30" s="10">
+      <c r="AB30" s="11">
         <v>901.6288636363635</v>
       </c>
-      <c r="AE30" s="10">
+      <c r="AE30" s="11">
         <v>901.6288636363635</v>
       </c>
-      <c r="AF30" s="10">
+      <c r="AF30" s="11">
         <v>901.6288636363635</v>
       </c>
-      <c r="AG30" s="10">
+      <c r="AG30" s="11">
         <v>901.6288636363635</v>
       </c>
-      <c r="AH30" s="10">
+      <c r="AH30" s="11">
         <v>901.6288636363635</v>
       </c>
-      <c r="AI30" s="10">
+      <c r="AI30" s="11">
         <v>901.6288636363635</v>
       </c>
       <c r="AK30" s="7">
@@ -5056,7 +7095,9 @@
       </c>
     </row>
     <row r="31" spans="1:37">
-      <c r="A31" s="5"/>
+      <c r="A31" s="5">
+        <v>15</v>
+      </c>
       <c r="B31" s="5" t="s">
         <v>73</v>
       </c>
@@ -5067,8 +7108,8 @@
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:37">
-      <c r="A32" s="8" t="s">
-        <v>129</v>
+      <c r="A32" s="8">
+        <v>16</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>75</v>
@@ -5088,7 +7129,9 @@
       </c>
     </row>
     <row r="33" spans="1:37">
-      <c r="A33" s="5"/>
+      <c r="A33" s="5">
+        <v>17</v>
+      </c>
       <c r="B33" s="5" t="s">
         <v>77</v>
       </c>
@@ -5099,8 +7142,8 @@
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:37">
-      <c r="A34" s="8" t="s">
-        <v>129</v>
+      <c r="A34" s="8">
+        <v>18</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>79</v>
@@ -5120,7 +7163,9 @@
       </c>
     </row>
     <row r="35" spans="1:37">
-      <c r="A35" s="5"/>
+      <c r="A35" s="5">
+        <v>19</v>
+      </c>
       <c r="B35" s="5" t="s">
         <v>81</v>
       </c>
@@ -5131,8 +7176,8 @@
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:37">
-      <c r="A36" s="8" t="s">
-        <v>129</v>
+      <c r="A36" s="8">
+        <v>20</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>83</v>
@@ -5146,7 +7191,7 @@
       <c r="E36" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AI36" s="10">
+      <c r="AI36" s="11">
         <v>22.534</v>
       </c>
       <c r="AK36" s="7">
@@ -5155,7 +7200,9 @@
       </c>
     </row>
     <row r="37" spans="1:37">
-      <c r="A37" s="5"/>
+      <c r="A37" s="5">
+        <v>21</v>
+      </c>
       <c r="B37" s="5" t="s">
         <v>85</v>
       </c>
@@ -5166,8 +7213,8 @@
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:37">
-      <c r="A38" s="8" t="s">
-        <v>129</v>
+      <c r="A38" s="8">
+        <v>22</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>87</v>
@@ -5187,8 +7234,8 @@
       </c>
     </row>
     <row r="39" spans="1:37">
-      <c r="A39" s="8" t="s">
-        <v>130</v>
+      <c r="A39" s="8">
+        <v>23</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>89</v>
@@ -5231,7 +7278,7 @@
     <mergeCell ref="N14:U14"/>
     <mergeCell ref="V14:AC14"/>
     <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="A17:AK17"/>
+    <mergeCell ref="AK14:AK16"/>
   </mergeCells>
   <conditionalFormatting sqref="F17:AK39">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
@@ -5300,7 +7347,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -5506,7 +7553,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -5583,6 +7630,9 @@
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
+      <c r="AJ14" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="3"/>
@@ -5590,96 +7640,97 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="M15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="N15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="O15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K15" s="10" t="s">
+      <c r="P15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="R15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="S15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="T15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="U15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="V15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="R15" s="10" t="s">
+      <c r="W15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="S15" s="10" t="s">
+      <c r="Y15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="T15" s="10" t="s">
+      <c r="Z15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="U15" s="10" t="s">
+      <c r="AA15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="V15" s="10" t="s">
+      <c r="AB15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="W15" s="10" t="s">
+      <c r="AC15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="X15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y15" s="10" t="s">
+      <c r="AD15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Z15" s="10" t="s">
+      <c r="AF15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AA15" s="10" t="s">
+      <c r="AG15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AB15" s="10" t="s">
+      <c r="AH15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AC15" s="10" t="s">
+      <c r="AI15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AD15" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF15" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG15" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH15" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI15" s="10" t="s">
-        <v>125</v>
-      </c>
+      <c r="AJ15" s="3"/>
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="3"/>
@@ -5777,9 +7828,12 @@
       <c r="AI16" s="10">
         <v>30</v>
       </c>
+      <c r="AJ16" s="3"/>
     </row>
     <row r="17" spans="1:36">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
       <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
@@ -5788,41 +7842,10 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
     </row>
     <row r="18" spans="1:36">
-      <c r="A18" s="8" t="s">
-        <v>129</v>
+      <c r="A18" s="8">
+        <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>42</v>
@@ -5836,19 +7859,19 @@
       <c r="E18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="11">
         <v>0.3851111111111111</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="11">
         <v>0.3851111111111111</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="11">
         <v>0.3851111111111111</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="11">
         <v>0.3851111111111111</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="11">
         <v>0.3851111111111111</v>
       </c>
       <c r="AJ18" s="7">
@@ -5857,8 +7880,8 @@
       </c>
     </row>
     <row r="19" spans="1:36">
-      <c r="A19" s="8" t="s">
-        <v>130</v>
+      <c r="A19" s="8">
+        <v>3</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>45</v>
@@ -5872,25 +7895,25 @@
       <c r="E19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="Y19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AB19" s="10">
+      <c r="AB19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AC19" s="10">
+      <c r="AC19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AD19" s="10">
+      <c r="AD19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AE19" s="10">
+      <c r="AE19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AF19" s="10">
+      <c r="AF19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AI19" s="10">
+      <c r="AI19" s="11">
         <v>30.62966666666667</v>
       </c>
       <c r="AJ19" s="7">
@@ -5899,8 +7922,8 @@
       </c>
     </row>
     <row r="20" spans="1:36">
-      <c r="A20" s="8" t="s">
-        <v>131</v>
+      <c r="A20" s="8">
+        <v>4</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>48</v>
@@ -5914,7 +7937,7 @@
       <c r="E20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="U20" s="10">
+      <c r="U20" s="11">
         <v>6.65</v>
       </c>
       <c r="AJ20" s="7">
@@ -5923,8 +7946,8 @@
       </c>
     </row>
     <row r="21" spans="1:36">
-      <c r="A21" s="8" t="s">
-        <v>132</v>
+      <c r="A21" s="8">
+        <v>5</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>51</v>
@@ -5938,10 +7961,10 @@
       <c r="E21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="V21" s="10">
+      <c r="V21" s="11">
         <v>8.505625</v>
       </c>
-      <c r="W21" s="10">
+      <c r="W21" s="11">
         <v>8.505625</v>
       </c>
       <c r="AJ21" s="7">
@@ -5950,7 +7973,9 @@
       </c>
     </row>
     <row r="22" spans="1:36">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5">
+        <v>6</v>
+      </c>
       <c r="B22" s="5" t="s">
         <v>53</v>
       </c>
@@ -5961,8 +7986,8 @@
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:36">
-      <c r="A23" s="8" t="s">
-        <v>129</v>
+      <c r="A23" s="8">
+        <v>7</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>55</v>
@@ -5976,19 +8001,19 @@
       <c r="E23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="U23" s="10">
+      <c r="U23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="V23" s="10">
+      <c r="V23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="W23" s="10">
+      <c r="W23" s="11">
         <v>378.7879545454545</v>
       </c>
       <c r="AJ23" s="7">
@@ -5997,8 +8022,8 @@
       </c>
     </row>
     <row r="24" spans="1:36">
-      <c r="A24" s="8" t="s">
-        <v>130</v>
+      <c r="A24" s="8">
+        <v>8</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>58</v>
@@ -6014,8 +8039,8 @@
       </c>
     </row>
     <row r="25" spans="1:36">
-      <c r="A25" s="8" t="s">
-        <v>131</v>
+      <c r="A25" s="8">
+        <v>9</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>61</v>
@@ -6029,10 +8054,10 @@
       <c r="E25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="11">
         <v>42.42454545454546</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="11">
         <v>42.42454545454546</v>
       </c>
       <c r="AJ25" s="7">
@@ -6041,8 +8066,8 @@
       </c>
     </row>
     <row r="26" spans="1:36">
-      <c r="A26" s="8" t="s">
-        <v>132</v>
+      <c r="A26" s="8">
+        <v>10</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>63</v>
@@ -6062,8 +8087,8 @@
       </c>
     </row>
     <row r="27" spans="1:36">
-      <c r="A27" s="8" t="s">
-        <v>133</v>
+      <c r="A27" s="8">
+        <v>11</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>65</v>
@@ -6083,8 +8108,8 @@
       </c>
     </row>
     <row r="28" spans="1:36">
-      <c r="A28" s="8" t="s">
-        <v>134</v>
+      <c r="A28" s="8">
+        <v>12</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>67</v>
@@ -6104,7 +8129,9 @@
       </c>
     </row>
     <row r="29" spans="1:36">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5">
+        <v>13</v>
+      </c>
       <c r="B29" s="5" t="s">
         <v>69</v>
       </c>
@@ -6115,8 +8142,8 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:36">
-      <c r="A30" s="8" t="s">
-        <v>129</v>
+      <c r="A30" s="8">
+        <v>14</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>71</v>
@@ -6130,19 +8157,19 @@
       <c r="E30" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="11">
         <v>901.6288636363636</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="11">
         <v>901.6288636363636</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="11">
         <v>901.6288636363636</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30" s="11">
         <v>901.6288636363636</v>
       </c>
-      <c r="P30" s="10">
+      <c r="P30" s="11">
         <v>901.6288636363636</v>
       </c>
       <c r="AJ30" s="7">
@@ -6151,7 +8178,9 @@
       </c>
     </row>
     <row r="31" spans="1:36">
-      <c r="A31" s="5"/>
+      <c r="A31" s="5">
+        <v>15</v>
+      </c>
       <c r="B31" s="5" t="s">
         <v>73</v>
       </c>
@@ -6162,8 +8191,8 @@
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:36">
-      <c r="A32" s="8" t="s">
-        <v>129</v>
+      <c r="A32" s="8">
+        <v>16</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>75</v>
@@ -6177,7 +8206,7 @@
       <c r="E32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="X32" s="10">
+      <c r="X32" s="11">
         <v>5.866</v>
       </c>
       <c r="AJ32" s="7">
@@ -6186,7 +8215,9 @@
       </c>
     </row>
     <row r="33" spans="1:36">
-      <c r="A33" s="5"/>
+      <c r="A33" s="5">
+        <v>17</v>
+      </c>
       <c r="B33" s="5" t="s">
         <v>77</v>
       </c>
@@ -6197,8 +8228,8 @@
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:36">
-      <c r="A34" s="8" t="s">
-        <v>129</v>
+      <c r="A34" s="8">
+        <v>18</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>79</v>
@@ -6218,7 +8249,9 @@
       </c>
     </row>
     <row r="35" spans="1:36">
-      <c r="A35" s="5"/>
+      <c r="A35" s="5">
+        <v>19</v>
+      </c>
       <c r="B35" s="5" t="s">
         <v>81</v>
       </c>
@@ -6229,8 +8262,8 @@
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:36">
-      <c r="A36" s="8" t="s">
-        <v>129</v>
+      <c r="A36" s="8">
+        <v>20</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>83</v>
@@ -6244,7 +8277,7 @@
       <c r="E36" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AF36" s="10">
+      <c r="AF36" s="11">
         <v>22.534</v>
       </c>
       <c r="AJ36" s="7">
@@ -6253,7 +8286,9 @@
       </c>
     </row>
     <row r="37" spans="1:36">
-      <c r="A37" s="5"/>
+      <c r="A37" s="5">
+        <v>21</v>
+      </c>
       <c r="B37" s="5" t="s">
         <v>85</v>
       </c>
@@ -6264,8 +8299,8 @@
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:36">
-      <c r="A38" s="8" t="s">
-        <v>129</v>
+      <c r="A38" s="8">
+        <v>22</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>87</v>
@@ -6279,7 +8314,7 @@
       <c r="E38" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="O38" s="10">
+      <c r="O38" s="11">
         <v>3.866</v>
       </c>
       <c r="AJ38" s="7">
@@ -6288,8 +8323,8 @@
       </c>
     </row>
     <row r="39" spans="1:36">
-      <c r="A39" s="8" t="s">
-        <v>130</v>
+      <c r="A39" s="8">
+        <v>23</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>89</v>
@@ -6332,7 +8367,7 @@
     <mergeCell ref="N14:U14"/>
     <mergeCell ref="V14:AB14"/>
     <mergeCell ref="AC14:AI14"/>
-    <mergeCell ref="A17:AJ17"/>
+    <mergeCell ref="AJ14:AJ16"/>
   </mergeCells>
   <conditionalFormatting sqref="F17:AJ39">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
@@ -6402,7 +8437,7 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6609,7 +8644,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -6688,6 +8723,9 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
+      <c r="AK14" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="3"/>
@@ -6695,99 +8733,100 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="M15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I15" s="10" t="s">
+      <c r="N15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="P15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="Q15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="R15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="S15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="T15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="P15" s="10" t="s">
+      <c r="U15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="V15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="W15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="X15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="S15" s="10" t="s">
+      <c r="Y15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="T15" s="10" t="s">
+      <c r="Z15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="U15" s="10" t="s">
+      <c r="AA15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="V15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="W15" s="10" t="s">
+      <c r="AB15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="X15" s="10" t="s">
+      <c r="AD15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Y15" s="10" t="s">
+      <c r="AE15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Z15" s="10" t="s">
+      <c r="AF15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AA15" s="10" t="s">
+      <c r="AG15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AB15" s="10" t="s">
+      <c r="AH15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AC15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD15" s="10" t="s">
+      <c r="AI15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AE15" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF15" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG15" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH15" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI15" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ15" s="10" t="s">
-        <v>121</v>
-      </c>
+      <c r="AK15" s="3"/>
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="3"/>
@@ -6888,9 +8927,12 @@
       <c r="AJ16" s="10">
         <v>31</v>
       </c>
+      <c r="AK16" s="3"/>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
       <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
@@ -6899,42 +8941,10 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="8" t="s">
-        <v>129</v>
+      <c r="A18" s="8">
+        <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>42</v>
@@ -6948,22 +8958,22 @@
       <c r="E18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="11">
         <v>0.385111111111111</v>
       </c>
       <c r="AK18" s="7">
@@ -6972,8 +8982,8 @@
       </c>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="8" t="s">
-        <v>130</v>
+      <c r="A19" s="8">
+        <v>3</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>45</v>
@@ -6987,28 +8997,28 @@
       <c r="E19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="V19" s="10">
+      <c r="V19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="W19" s="10">
+      <c r="W19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="Z19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AA19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AC19" s="10">
+      <c r="AC19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AD19" s="10">
+      <c r="AD19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AI19" s="10">
+      <c r="AI19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AJ19" s="10">
+      <c r="AJ19" s="11">
         <v>30.62966666666667</v>
       </c>
       <c r="AK19" s="7">
@@ -7017,8 +9027,8 @@
       </c>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="8" t="s">
-        <v>131</v>
+      <c r="A20" s="8">
+        <v>4</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>48</v>
@@ -7038,8 +9048,8 @@
       </c>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="8" t="s">
-        <v>132</v>
+      <c r="A21" s="8">
+        <v>5</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>51</v>
@@ -7053,10 +9063,10 @@
       <c r="E21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="11">
         <v>8.505625</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="11">
         <v>8.505625</v>
       </c>
       <c r="AK21" s="7">
@@ -7065,7 +9075,9 @@
       </c>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5">
+        <v>6</v>
+      </c>
       <c r="B22" s="5" t="s">
         <v>53</v>
       </c>
@@ -7076,8 +9088,8 @@
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="8" t="s">
-        <v>129</v>
+      <c r="A23" s="8">
+        <v>7</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>55</v>
@@ -7091,22 +9103,22 @@
       <c r="E23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="S23" s="10">
+      <c r="S23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="T23" s="10">
+      <c r="T23" s="11">
         <v>378.7879545454545</v>
       </c>
       <c r="AK23" s="7">
@@ -7115,8 +9127,8 @@
       </c>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="8" t="s">
-        <v>130</v>
+      <c r="A24" s="8">
+        <v>8</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>58</v>
@@ -7132,8 +9144,8 @@
       </c>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="8" t="s">
-        <v>131</v>
+      <c r="A25" s="8">
+        <v>9</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>61</v>
@@ -7147,7 +9159,7 @@
       <c r="E25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="11">
         <v>42.42454545454546</v>
       </c>
       <c r="AK25" s="7">
@@ -7156,8 +9168,8 @@
       </c>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="8" t="s">
-        <v>132</v>
+      <c r="A26" s="8">
+        <v>10</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>63</v>
@@ -7177,8 +9189,8 @@
       </c>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="8" t="s">
-        <v>133</v>
+      <c r="A27" s="8">
+        <v>11</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>65</v>
@@ -7198,8 +9210,8 @@
       </c>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="8" t="s">
-        <v>134</v>
+      <c r="A28" s="8">
+        <v>12</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>67</v>
@@ -7219,7 +9231,9 @@
       </c>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5">
+        <v>13</v>
+      </c>
       <c r="B29" s="5" t="s">
         <v>69</v>
       </c>
@@ -7230,8 +9244,8 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:37">
-      <c r="A30" s="8" t="s">
-        <v>129</v>
+      <c r="A30" s="8">
+        <v>14</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>71</v>
@@ -7245,22 +9259,22 @@
       <c r="E30" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Z30" s="10">
+      <c r="Z30" s="11">
         <v>901.6288636363635</v>
       </c>
-      <c r="AA30" s="10">
+      <c r="AA30" s="11">
         <v>901.6288636363635</v>
       </c>
-      <c r="AC30" s="10">
+      <c r="AC30" s="11">
         <v>901.6288636363635</v>
       </c>
-      <c r="AD30" s="10">
+      <c r="AD30" s="11">
         <v>901.6288636363635</v>
       </c>
-      <c r="AI30" s="10">
+      <c r="AI30" s="11">
         <v>901.6288636363635</v>
       </c>
-      <c r="AJ30" s="10">
+      <c r="AJ30" s="11">
         <v>901.6288636363635</v>
       </c>
       <c r="AK30" s="7">
@@ -7269,7 +9283,9 @@
       </c>
     </row>
     <row r="31" spans="1:37">
-      <c r="A31" s="5"/>
+      <c r="A31" s="5">
+        <v>15</v>
+      </c>
       <c r="B31" s="5" t="s">
         <v>73</v>
       </c>
@@ -7280,8 +9296,8 @@
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:37">
-      <c r="A32" s="8" t="s">
-        <v>129</v>
+      <c r="A32" s="8">
+        <v>16</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>75</v>
@@ -7295,7 +9311,7 @@
       <c r="E32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="U32" s="10">
+      <c r="U32" s="11">
         <v>5.866</v>
       </c>
       <c r="AK32" s="7">
@@ -7304,7 +9320,9 @@
       </c>
     </row>
     <row r="33" spans="1:37">
-      <c r="A33" s="5"/>
+      <c r="A33" s="5">
+        <v>17</v>
+      </c>
       <c r="B33" s="5" t="s">
         <v>77</v>
       </c>
@@ -7315,8 +9333,8 @@
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:37">
-      <c r="A34" s="8" t="s">
-        <v>129</v>
+      <c r="A34" s="8">
+        <v>18</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>79</v>
@@ -7336,7 +9354,9 @@
       </c>
     </row>
     <row r="35" spans="1:37">
-      <c r="A35" s="5"/>
+      <c r="A35" s="5">
+        <v>19</v>
+      </c>
       <c r="B35" s="5" t="s">
         <v>81</v>
       </c>
@@ -7347,8 +9367,8 @@
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:37">
-      <c r="A36" s="8" t="s">
-        <v>129</v>
+      <c r="A36" s="8">
+        <v>20</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>83</v>
@@ -7368,7 +9388,9 @@
       </c>
     </row>
     <row r="37" spans="1:37">
-      <c r="A37" s="5"/>
+      <c r="A37" s="5">
+        <v>21</v>
+      </c>
       <c r="B37" s="5" t="s">
         <v>85</v>
       </c>
@@ -7379,8 +9401,8 @@
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:37">
-      <c r="A38" s="8" t="s">
-        <v>129</v>
+      <c r="A38" s="8">
+        <v>22</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>87</v>
@@ -7394,7 +9416,7 @@
       <c r="E38" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="O38" s="10">
+      <c r="O38" s="11">
         <v>3.866</v>
       </c>
       <c r="AK38" s="7">
@@ -7403,8 +9425,8 @@
       </c>
     </row>
     <row r="39" spans="1:37">
-      <c r="A39" s="8" t="s">
-        <v>130</v>
+      <c r="A39" s="8">
+        <v>23</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>89</v>
@@ -7447,7 +9469,7 @@
     <mergeCell ref="N14:U14"/>
     <mergeCell ref="V14:AC14"/>
     <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="A17:AK17"/>
+    <mergeCell ref="AK14:AK16"/>
   </mergeCells>
   <conditionalFormatting sqref="F17:AK39">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
@@ -7517,7 +9539,7 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -7724,7 +9746,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -7803,6 +9825,9 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
+      <c r="AK14" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="3"/>
@@ -7810,99 +9835,100 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="M15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="N15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="O15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="P15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="Q15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="M15" s="10" t="s">
+      <c r="R15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="T15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="U15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="V15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="W15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="X15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="S15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="T15" s="10" t="s">
+      <c r="Y15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="U15" s="10" t="s">
+      <c r="AA15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="V15" s="10" t="s">
+      <c r="AB15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="W15" s="10" t="s">
+      <c r="AC15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="X15" s="10" t="s">
+      <c r="AD15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Y15" s="10" t="s">
+      <c r="AE15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Z15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA15" s="10" t="s">
+      <c r="AF15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AB15" s="10" t="s">
+      <c r="AH15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AC15" s="10" t="s">
+      <c r="AI15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AD15" s="10" t="s">
+      <c r="AJ15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AE15" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF15" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH15" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI15" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ15" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="AK15" s="3"/>
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="3"/>
@@ -8003,9 +10029,12 @@
       <c r="AJ16" s="10">
         <v>31</v>
       </c>
+      <c r="AK16" s="3"/>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
       <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
@@ -8014,42 +10043,10 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="8" t="s">
-        <v>129</v>
+      <c r="A18" s="8">
+        <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>42</v>
@@ -8063,22 +10060,22 @@
       <c r="E18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="11">
         <v>0.385111111111111</v>
       </c>
       <c r="AK18" s="7">
@@ -8087,8 +10084,8 @@
       </c>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="8" t="s">
-        <v>130</v>
+      <c r="A19" s="8">
+        <v>3</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>45</v>
@@ -8102,28 +10099,28 @@
       <c r="E19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="T19" s="10">
+      <c r="T19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="W19" s="10">
+      <c r="W19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="X19" s="10">
+      <c r="X19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="Y19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="Z19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AA19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AD19" s="10">
+      <c r="AD19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AE19" s="10">
+      <c r="AE19" s="11">
         <v>30.62966666666667</v>
       </c>
       <c r="AK19" s="7">
@@ -8132,8 +10129,8 @@
       </c>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="8" t="s">
-        <v>131</v>
+      <c r="A20" s="8">
+        <v>4</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>48</v>
@@ -8147,7 +10144,7 @@
       <c r="E20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="S20" s="10">
+      <c r="S20" s="11">
         <v>6.65</v>
       </c>
       <c r="AK20" s="7">
@@ -8156,8 +10153,8 @@
       </c>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="8" t="s">
-        <v>132</v>
+      <c r="A21" s="8">
+        <v>5</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>51</v>
@@ -8171,10 +10168,10 @@
       <c r="E21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="S21" s="10">
+      <c r="S21" s="11">
         <v>8.505625</v>
       </c>
-      <c r="T21" s="10">
+      <c r="T21" s="11">
         <v>8.505625</v>
       </c>
       <c r="AK21" s="7">
@@ -8183,7 +10180,9 @@
       </c>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5">
+        <v>6</v>
+      </c>
       <c r="B22" s="5" t="s">
         <v>53</v>
       </c>
@@ -8194,8 +10193,8 @@
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="8" t="s">
-        <v>129</v>
+      <c r="A23" s="8">
+        <v>7</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>55</v>
@@ -8209,22 +10208,22 @@
       <c r="E23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="11">
         <v>378.7879545454545</v>
       </c>
       <c r="AK23" s="7">
@@ -8233,8 +10232,8 @@
       </c>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="8" t="s">
-        <v>130</v>
+      <c r="A24" s="8">
+        <v>8</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>58</v>
@@ -8250,8 +10249,8 @@
       </c>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="8" t="s">
-        <v>131</v>
+      <c r="A25" s="8">
+        <v>9</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>61</v>
@@ -8265,7 +10264,7 @@
       <c r="E25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="11">
         <v>42.42454545454546</v>
       </c>
       <c r="AK25" s="7">
@@ -8274,8 +10273,8 @@
       </c>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="8" t="s">
-        <v>132</v>
+      <c r="A26" s="8">
+        <v>10</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>63</v>
@@ -8295,8 +10294,8 @@
       </c>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="8" t="s">
-        <v>133</v>
+      <c r="A27" s="8">
+        <v>11</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>65</v>
@@ -8316,8 +10315,8 @@
       </c>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="8" t="s">
-        <v>134</v>
+      <c r="A28" s="8">
+        <v>12</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>67</v>
@@ -8337,7 +10336,9 @@
       </c>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5">
+        <v>13</v>
+      </c>
       <c r="B29" s="5" t="s">
         <v>69</v>
       </c>
@@ -8348,8 +10349,8 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:37">
-      <c r="A30" s="8" t="s">
-        <v>129</v>
+      <c r="A30" s="8">
+        <v>14</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>71</v>
@@ -8363,22 +10364,22 @@
       <c r="E30" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AA30" s="10">
+      <c r="AA30" s="11">
         <v>901.6288636363635</v>
       </c>
-      <c r="AD30" s="10">
+      <c r="AD30" s="11">
         <v>901.6288636363635</v>
       </c>
-      <c r="AE30" s="10">
+      <c r="AE30" s="11">
         <v>901.6288636363635</v>
       </c>
-      <c r="AF30" s="10">
+      <c r="AF30" s="11">
         <v>901.6288636363635</v>
       </c>
-      <c r="AG30" s="10">
+      <c r="AG30" s="11">
         <v>901.6288636363635</v>
       </c>
-      <c r="AH30" s="10">
+      <c r="AH30" s="11">
         <v>901.6288636363635</v>
       </c>
       <c r="AK30" s="7">
@@ -8387,7 +10388,9 @@
       </c>
     </row>
     <row r="31" spans="1:37">
-      <c r="A31" s="5"/>
+      <c r="A31" s="5">
+        <v>15</v>
+      </c>
       <c r="B31" s="5" t="s">
         <v>73</v>
       </c>
@@ -8398,8 +10401,8 @@
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:37">
-      <c r="A32" s="8" t="s">
-        <v>129</v>
+      <c r="A32" s="8">
+        <v>16</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>75</v>
@@ -8413,7 +10416,7 @@
       <c r="E32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="R32" s="10">
+      <c r="R32" s="11">
         <v>5.866</v>
       </c>
       <c r="AK32" s="7">
@@ -8422,7 +10425,9 @@
       </c>
     </row>
     <row r="33" spans="1:37">
-      <c r="A33" s="5"/>
+      <c r="A33" s="5">
+        <v>17</v>
+      </c>
       <c r="B33" s="5" t="s">
         <v>77</v>
       </c>
@@ -8433,8 +10438,8 @@
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:37">
-      <c r="A34" s="8" t="s">
-        <v>129</v>
+      <c r="A34" s="8">
+        <v>18</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>79</v>
@@ -8454,7 +10459,9 @@
       </c>
     </row>
     <row r="35" spans="1:37">
-      <c r="A35" s="5"/>
+      <c r="A35" s="5">
+        <v>19</v>
+      </c>
       <c r="B35" s="5" t="s">
         <v>81</v>
       </c>
@@ -8465,8 +10472,8 @@
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:37">
-      <c r="A36" s="8" t="s">
-        <v>129</v>
+      <c r="A36" s="8">
+        <v>20</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>83</v>
@@ -8486,7 +10493,9 @@
       </c>
     </row>
     <row r="37" spans="1:37">
-      <c r="A37" s="5"/>
+      <c r="A37" s="5">
+        <v>21</v>
+      </c>
       <c r="B37" s="5" t="s">
         <v>85</v>
       </c>
@@ -8497,8 +10506,8 @@
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:37">
-      <c r="A38" s="8" t="s">
-        <v>129</v>
+      <c r="A38" s="8">
+        <v>22</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>87</v>
@@ -8518,8 +10527,8 @@
       </c>
     </row>
     <row r="39" spans="1:37">
-      <c r="A39" s="8" t="s">
-        <v>130</v>
+      <c r="A39" s="8">
+        <v>23</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>89</v>
@@ -8562,7 +10571,7 @@
     <mergeCell ref="N14:U14"/>
     <mergeCell ref="V14:AC14"/>
     <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="A17:AK17"/>
+    <mergeCell ref="AK14:AK16"/>
   </mergeCells>
   <conditionalFormatting sqref="F17:AK39">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
@@ -8631,7 +10640,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -8837,7 +10846,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -8914,6 +10923,9 @@
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
+      <c r="AJ14" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="3"/>
@@ -8921,96 +10933,97 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="M15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="N15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="J15" s="10" t="s">
+      <c r="O15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="Q15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="R15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="S15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="T15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="U15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="P15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q15" s="10" t="s">
+      <c r="V15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="W15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="X15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="S15" s="10" t="s">
+      <c r="Y15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="T15" s="10" t="s">
+      <c r="Z15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="U15" s="10" t="s">
+      <c r="AA15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="V15" s="10" t="s">
+      <c r="AB15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="W15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="X15" s="10" t="s">
+      <c r="AC15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Y15" s="10" t="s">
+      <c r="AE15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Z15" s="10" t="s">
+      <c r="AF15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AA15" s="10" t="s">
+      <c r="AG15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AB15" s="10" t="s">
+      <c r="AH15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AC15" s="10" t="s">
+      <c r="AI15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AD15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE15" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF15" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG15" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH15" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI15" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="AJ15" s="3"/>
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="3"/>
@@ -9108,9 +11121,12 @@
       <c r="AI16" s="10">
         <v>30</v>
       </c>
+      <c r="AJ16" s="3"/>
     </row>
     <row r="17" spans="1:36">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
       <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
@@ -9119,41 +11135,10 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
     </row>
     <row r="18" spans="1:36">
-      <c r="A18" s="8" t="s">
-        <v>129</v>
+      <c r="A18" s="8">
+        <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>42</v>
@@ -9167,22 +11152,22 @@
       <c r="E18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="11">
         <v>0.385111111111111</v>
       </c>
       <c r="AJ18" s="7">
@@ -9191,8 +11176,8 @@
       </c>
     </row>
     <row r="19" spans="1:36">
-      <c r="A19" s="8" t="s">
-        <v>130</v>
+      <c r="A19" s="8">
+        <v>3</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>45</v>
@@ -9206,25 +11191,25 @@
       <c r="E19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AA19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AB19" s="10">
+      <c r="AB19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AC19" s="10">
+      <c r="AC19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AD19" s="10">
+      <c r="AD19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AE19" s="10">
+      <c r="AE19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AH19" s="10">
+      <c r="AH19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AI19" s="10">
+      <c r="AI19" s="11">
         <v>30.62966666666667</v>
       </c>
       <c r="AJ19" s="7">
@@ -9233,8 +11218,8 @@
       </c>
     </row>
     <row r="20" spans="1:36">
-      <c r="A20" s="8" t="s">
-        <v>131</v>
+      <c r="A20" s="8">
+        <v>4</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>48</v>
@@ -9248,7 +11233,7 @@
       <c r="E20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="11">
         <v>6.65</v>
       </c>
       <c r="AJ20" s="7">
@@ -9257,8 +11242,8 @@
       </c>
     </row>
     <row r="21" spans="1:36">
-      <c r="A21" s="8" t="s">
-        <v>132</v>
+      <c r="A21" s="8">
+        <v>5</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>51</v>
@@ -9272,10 +11257,10 @@
       <c r="E21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T21" s="10">
+      <c r="T21" s="11">
         <v>8.505625</v>
       </c>
-      <c r="U21" s="10">
+      <c r="U21" s="11">
         <v>8.505625</v>
       </c>
       <c r="AJ21" s="7">
@@ -9284,7 +11269,9 @@
       </c>
     </row>
     <row r="22" spans="1:36">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5">
+        <v>6</v>
+      </c>
       <c r="B22" s="5" t="s">
         <v>53</v>
       </c>
@@ -9295,8 +11282,8 @@
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:36">
-      <c r="A23" s="8" t="s">
-        <v>129</v>
+      <c r="A23" s="8">
+        <v>7</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>55</v>
@@ -9310,19 +11297,19 @@
       <c r="E23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="V23" s="10">
+      <c r="V23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="W23" s="10">
+      <c r="W23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="X23" s="10">
+      <c r="X23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="AA23" s="10">
+      <c r="AA23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="AB23" s="10">
+      <c r="AB23" s="11">
         <v>378.7879545454545</v>
       </c>
       <c r="AJ23" s="7">
@@ -9331,8 +11318,8 @@
       </c>
     </row>
     <row r="24" spans="1:36">
-      <c r="A24" s="8" t="s">
-        <v>130</v>
+      <c r="A24" s="8">
+        <v>8</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>58</v>
@@ -9348,8 +11335,8 @@
       </c>
     </row>
     <row r="25" spans="1:36">
-      <c r="A25" s="8" t="s">
-        <v>131</v>
+      <c r="A25" s="8">
+        <v>9</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>61</v>
@@ -9363,7 +11350,7 @@
       <c r="E25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="P25" s="10">
+      <c r="P25" s="11">
         <v>42.42454545454546</v>
       </c>
       <c r="AJ25" s="7">
@@ -9372,8 +11359,8 @@
       </c>
     </row>
     <row r="26" spans="1:36">
-      <c r="A26" s="8" t="s">
-        <v>132</v>
+      <c r="A26" s="8">
+        <v>10</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>63</v>
@@ -9393,8 +11380,8 @@
       </c>
     </row>
     <row r="27" spans="1:36">
-      <c r="A27" s="8" t="s">
-        <v>133</v>
+      <c r="A27" s="8">
+        <v>11</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>65</v>
@@ -9414,8 +11401,8 @@
       </c>
     </row>
     <row r="28" spans="1:36">
-      <c r="A28" s="8" t="s">
-        <v>134</v>
+      <c r="A28" s="8">
+        <v>12</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>67</v>
@@ -9435,7 +11422,9 @@
       </c>
     </row>
     <row r="29" spans="1:36">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5">
+        <v>13</v>
+      </c>
       <c r="B29" s="5" t="s">
         <v>69</v>
       </c>
@@ -9446,8 +11435,8 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:36">
-      <c r="A30" s="8" t="s">
-        <v>129</v>
+      <c r="A30" s="8">
+        <v>14</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>71</v>
@@ -9461,19 +11450,19 @@
       <c r="E30" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="11">
         <v>901.6288636363636</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="11">
         <v>901.6288636363636</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="11">
         <v>901.6288636363636</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="11">
         <v>901.6288636363636</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="11">
         <v>901.6288636363636</v>
       </c>
       <c r="AJ30" s="7">
@@ -9482,7 +11471,9 @@
       </c>
     </row>
     <row r="31" spans="1:36">
-      <c r="A31" s="5"/>
+      <c r="A31" s="5">
+        <v>15</v>
+      </c>
       <c r="B31" s="5" t="s">
         <v>73</v>
       </c>
@@ -9493,8 +11484,8 @@
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:36">
-      <c r="A32" s="8" t="s">
-        <v>129</v>
+      <c r="A32" s="8">
+        <v>16</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>75</v>
@@ -9508,7 +11499,7 @@
       <c r="E32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="11">
         <v>5.866</v>
       </c>
       <c r="AJ32" s="7">
@@ -9517,7 +11508,9 @@
       </c>
     </row>
     <row r="33" spans="1:36">
-      <c r="A33" s="5"/>
+      <c r="A33" s="5">
+        <v>17</v>
+      </c>
       <c r="B33" s="5" t="s">
         <v>77</v>
       </c>
@@ -9528,8 +11521,8 @@
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:36">
-      <c r="A34" s="8" t="s">
-        <v>129</v>
+      <c r="A34" s="8">
+        <v>18</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>79</v>
@@ -9549,7 +11542,9 @@
       </c>
     </row>
     <row r="35" spans="1:36">
-      <c r="A35" s="5"/>
+      <c r="A35" s="5">
+        <v>19</v>
+      </c>
       <c r="B35" s="5" t="s">
         <v>81</v>
       </c>
@@ -9560,8 +11555,8 @@
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:36">
-      <c r="A36" s="8" t="s">
-        <v>129</v>
+      <c r="A36" s="8">
+        <v>20</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>83</v>
@@ -9575,7 +11570,7 @@
       <c r="E36" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AE36" s="10">
+      <c r="AE36" s="11">
         <v>22.534</v>
       </c>
       <c r="AJ36" s="7">
@@ -9584,7 +11579,9 @@
       </c>
     </row>
     <row r="37" spans="1:36">
-      <c r="A37" s="5"/>
+      <c r="A37" s="5">
+        <v>21</v>
+      </c>
       <c r="B37" s="5" t="s">
         <v>85</v>
       </c>
@@ -9595,8 +11592,8 @@
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:36">
-      <c r="A38" s="8" t="s">
-        <v>129</v>
+      <c r="A38" s="8">
+        <v>22</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>87</v>
@@ -9610,7 +11607,7 @@
       <c r="E38" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="O38" s="10">
+      <c r="O38" s="11">
         <v>3.866</v>
       </c>
       <c r="AJ38" s="7">
@@ -9619,8 +11616,8 @@
       </c>
     </row>
     <row r="39" spans="1:36">
-      <c r="A39" s="8" t="s">
-        <v>130</v>
+      <c r="A39" s="8">
+        <v>23</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>89</v>
@@ -9663,7 +11660,7 @@
     <mergeCell ref="N14:U14"/>
     <mergeCell ref="V14:AB14"/>
     <mergeCell ref="AC14:AI14"/>
-    <mergeCell ref="A17:AJ17"/>
+    <mergeCell ref="AJ14:AJ16"/>
   </mergeCells>
   <conditionalFormatting sqref="F17:AJ39">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
@@ -9733,7 +11730,7 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -9940,7 +11937,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -10019,6 +12016,9 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
+      <c r="AK14" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="3"/>
@@ -10026,99 +12026,100 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="M15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="O15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="P15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="Q15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="R15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="S15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="N15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="O15" s="10" t="s">
+      <c r="T15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="V15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="W15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="X15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="S15" s="10" t="s">
+      <c r="Y15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="T15" s="10" t="s">
+      <c r="Z15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="U15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="V15" s="10" t="s">
+      <c r="AA15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="W15" s="10" t="s">
+      <c r="AC15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="X15" s="10" t="s">
+      <c r="AD15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Y15" s="10" t="s">
+      <c r="AE15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Z15" s="10" t="s">
+      <c r="AF15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AA15" s="10" t="s">
+      <c r="AG15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AB15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC15" s="10" t="s">
+      <c r="AH15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AD15" s="10" t="s">
+      <c r="AJ15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AE15" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF15" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG15" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH15" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ15" s="10" t="s">
-        <v>122</v>
-      </c>
+      <c r="AK15" s="3"/>
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="3"/>
@@ -10219,9 +12220,12 @@
       <c r="AJ16" s="10">
         <v>31</v>
       </c>
+      <c r="AK16" s="3"/>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
       <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
@@ -10230,42 +12234,10 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="8" t="s">
-        <v>129</v>
+      <c r="A18" s="8">
+        <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>42</v>
@@ -10279,22 +12251,22 @@
       <c r="E18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="11">
         <v>0.385111111111111</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="11">
         <v>0.385111111111111</v>
       </c>
       <c r="AK18" s="7">
@@ -10303,8 +12275,8 @@
       </c>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="8" t="s">
-        <v>130</v>
+      <c r="A19" s="8">
+        <v>3</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>45</v>
@@ -10318,28 +12290,28 @@
       <c r="E19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="S19" s="10">
+      <c r="S19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="T19" s="10">
+      <c r="T19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="U19" s="10">
+      <c r="U19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="V19" s="10">
+      <c r="V19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="Y19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="Z19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AA19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AB19" s="10">
+      <c r="AB19" s="11">
         <v>30.62966666666667</v>
       </c>
       <c r="AK19" s="7">
@@ -10348,8 +12320,8 @@
       </c>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="8" t="s">
-        <v>131</v>
+      <c r="A20" s="8">
+        <v>4</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>48</v>
@@ -10363,7 +12335,7 @@
       <c r="E20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="R20" s="10">
+      <c r="R20" s="11">
         <v>6.65</v>
       </c>
       <c r="AK20" s="7">
@@ -10372,8 +12344,8 @@
       </c>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="8" t="s">
-        <v>132</v>
+      <c r="A21" s="8">
+        <v>5</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>51</v>
@@ -10387,10 +12359,10 @@
       <c r="E21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="S21" s="10">
+      <c r="S21" s="11">
         <v>8.505625</v>
       </c>
-      <c r="T21" s="10">
+      <c r="T21" s="11">
         <v>8.505625</v>
       </c>
       <c r="AK21" s="7">
@@ -10399,7 +12371,9 @@
       </c>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5">
+        <v>6</v>
+      </c>
       <c r="B22" s="5" t="s">
         <v>53</v>
       </c>
@@ -10410,8 +12384,8 @@
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="8" t="s">
-        <v>129</v>
+      <c r="A23" s="8">
+        <v>7</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>55</v>
@@ -10425,22 +12399,22 @@
       <c r="E23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="11">
         <v>378.7879545454545</v>
       </c>
       <c r="AK23" s="7">
@@ -10449,8 +12423,8 @@
       </c>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="8" t="s">
-        <v>130</v>
+      <c r="A24" s="8">
+        <v>8</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>58</v>
@@ -10466,8 +12440,8 @@
       </c>
     </row>
     <row r="25" spans="1:37">
-      <c r="A25" s="8" t="s">
-        <v>131</v>
+      <c r="A25" s="8">
+        <v>9</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>61</v>
@@ -10481,7 +12455,7 @@
       <c r="E25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Y25" s="10">
+      <c r="Y25" s="11">
         <v>42.42454545454546</v>
       </c>
       <c r="AK25" s="7">
@@ -10490,8 +12464,8 @@
       </c>
     </row>
     <row r="26" spans="1:37">
-      <c r="A26" s="8" t="s">
-        <v>132</v>
+      <c r="A26" s="8">
+        <v>10</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>63</v>
@@ -10511,8 +12485,8 @@
       </c>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="8" t="s">
-        <v>133</v>
+      <c r="A27" s="8">
+        <v>11</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>65</v>
@@ -10532,8 +12506,8 @@
       </c>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="8" t="s">
-        <v>134</v>
+      <c r="A28" s="8">
+        <v>12</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>67</v>
@@ -10553,7 +12527,9 @@
       </c>
     </row>
     <row r="29" spans="1:37">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5">
+        <v>13</v>
+      </c>
       <c r="B29" s="5" t="s">
         <v>69</v>
       </c>
@@ -10564,8 +12540,8 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:37">
-      <c r="A30" s="8" t="s">
-        <v>129</v>
+      <c r="A30" s="8">
+        <v>14</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>71</v>
@@ -10579,22 +12555,22 @@
       <c r="E30" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AC30" s="10">
+      <c r="AC30" s="11">
         <v>901.6288636363635</v>
       </c>
-      <c r="AF30" s="10">
+      <c r="AF30" s="11">
         <v>901.6288636363635</v>
       </c>
-      <c r="AG30" s="10">
+      <c r="AG30" s="11">
         <v>901.6288636363635</v>
       </c>
-      <c r="AH30" s="10">
+      <c r="AH30" s="11">
         <v>901.6288636363635</v>
       </c>
-      <c r="AI30" s="10">
+      <c r="AI30" s="11">
         <v>901.6288636363635</v>
       </c>
-      <c r="AJ30" s="10">
+      <c r="AJ30" s="11">
         <v>901.6288636363635</v>
       </c>
       <c r="AK30" s="7">
@@ -10603,7 +12579,9 @@
       </c>
     </row>
     <row r="31" spans="1:37">
-      <c r="A31" s="5"/>
+      <c r="A31" s="5">
+        <v>15</v>
+      </c>
       <c r="B31" s="5" t="s">
         <v>73</v>
       </c>
@@ -10614,8 +12592,8 @@
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:37">
-      <c r="A32" s="8" t="s">
-        <v>129</v>
+      <c r="A32" s="8">
+        <v>16</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>75</v>
@@ -10635,7 +12613,9 @@
       </c>
     </row>
     <row r="33" spans="1:37">
-      <c r="A33" s="5"/>
+      <c r="A33" s="5">
+        <v>17</v>
+      </c>
       <c r="B33" s="5" t="s">
         <v>77</v>
       </c>
@@ -10646,8 +12626,8 @@
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:37">
-      <c r="A34" s="8" t="s">
-        <v>129</v>
+      <c r="A34" s="8">
+        <v>18</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>79</v>
@@ -10667,7 +12647,9 @@
       </c>
     </row>
     <row r="35" spans="1:37">
-      <c r="A35" s="5"/>
+      <c r="A35" s="5">
+        <v>19</v>
+      </c>
       <c r="B35" s="5" t="s">
         <v>81</v>
       </c>
@@ -10678,8 +12660,8 @@
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:37">
-      <c r="A36" s="8" t="s">
-        <v>129</v>
+      <c r="A36" s="8">
+        <v>20</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>83</v>
@@ -10699,7 +12681,9 @@
       </c>
     </row>
     <row r="37" spans="1:37">
-      <c r="A37" s="5"/>
+      <c r="A37" s="5">
+        <v>21</v>
+      </c>
       <c r="B37" s="5" t="s">
         <v>85</v>
       </c>
@@ -10710,8 +12694,8 @@
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:37">
-      <c r="A38" s="8" t="s">
-        <v>129</v>
+      <c r="A38" s="8">
+        <v>22</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>87</v>
@@ -10725,7 +12709,7 @@
       <c r="E38" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="O38" s="10">
+      <c r="O38" s="11">
         <v>3.866</v>
       </c>
       <c r="AK38" s="7">
@@ -10734,8 +12718,8 @@
       </c>
     </row>
     <row r="39" spans="1:37">
-      <c r="A39" s="8" t="s">
-        <v>130</v>
+      <c r="A39" s="8">
+        <v>23</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>89</v>
@@ -10778,7 +12762,7 @@
     <mergeCell ref="N14:U14"/>
     <mergeCell ref="V14:AC14"/>
     <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="A17:AK17"/>
+    <mergeCell ref="AK14:AK16"/>
   </mergeCells>
   <conditionalFormatting sqref="F17:AK39">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
@@ -10847,7 +12831,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -11053,7 +13037,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -11130,6 +13114,9 @@
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
+      <c r="AJ14" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="3"/>
@@ -11137,96 +13124,97 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="M15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="N15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="O15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="P15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="L15" s="10" t="s">
+      <c r="Q15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="S15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="T15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="U15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="V15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="W15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="R15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="S15" s="10" t="s">
+      <c r="X15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="T15" s="10" t="s">
+      <c r="Z15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="U15" s="10" t="s">
+      <c r="AA15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="V15" s="10" t="s">
+      <c r="AB15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="W15" s="10" t="s">
+      <c r="AC15" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="X15" s="10" t="s">
+      <c r="AD15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Y15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z15" s="10" t="s">
+      <c r="AE15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AA15" s="10" t="s">
+      <c r="AG15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AB15" s="10" t="s">
+      <c r="AH15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AC15" s="10" t="s">
+      <c r="AI15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AD15" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE15" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG15" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH15" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI15" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="AJ15" s="3"/>
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="3"/>
@@ -11324,9 +13312,12 @@
       <c r="AI16" s="10">
         <v>30</v>
       </c>
+      <c r="AJ16" s="3"/>
     </row>
     <row r="17" spans="1:36">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
       <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
@@ -11335,41 +13326,10 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
     </row>
     <row r="18" spans="1:36">
-      <c r="A18" s="8" t="s">
-        <v>129</v>
+      <c r="A18" s="8">
+        <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>42</v>
@@ -11383,19 +13343,19 @@
       <c r="E18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="11">
         <v>0.3851111111111111</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="11">
         <v>0.3851111111111111</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="11">
         <v>0.3851111111111111</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="11">
         <v>0.3851111111111111</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="11">
         <v>0.3851111111111111</v>
       </c>
       <c r="AJ18" s="7">
@@ -11404,8 +13364,8 @@
       </c>
     </row>
     <row r="19" spans="1:36">
-      <c r="A19" s="8" t="s">
-        <v>130</v>
+      <c r="A19" s="8">
+        <v>3</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>45</v>
@@ -11419,25 +13379,25 @@
       <c r="E19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="Y19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="Z19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AC19" s="10">
+      <c r="AC19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AD19" s="10">
+      <c r="AD19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AE19" s="10">
+      <c r="AE19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AF19" s="10">
+      <c r="AF19" s="11">
         <v>30.62966666666667</v>
       </c>
-      <c r="AG19" s="10">
+      <c r="AG19" s="11">
         <v>30.62966666666667</v>
       </c>
       <c r="AJ19" s="7">
@@ -11446,8 +13406,8 @@
       </c>
     </row>
     <row r="20" spans="1:36">
-      <c r="A20" s="8" t="s">
-        <v>131</v>
+      <c r="A20" s="8">
+        <v>4</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>48</v>
@@ -11461,7 +13421,7 @@
       <c r="E20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="V20" s="10">
+      <c r="V20" s="11">
         <v>6.65</v>
       </c>
       <c r="AJ20" s="7">
@@ -11470,8 +13430,8 @@
       </c>
     </row>
     <row r="21" spans="1:36">
-      <c r="A21" s="8" t="s">
-        <v>132</v>
+      <c r="A21" s="8">
+        <v>5</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>51</v>
@@ -11485,10 +13445,10 @@
       <c r="E21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="W21" s="10">
+      <c r="W21" s="11">
         <v>8.505625</v>
       </c>
-      <c r="X21" s="10">
+      <c r="X21" s="11">
         <v>8.505625</v>
       </c>
       <c r="AJ21" s="7">
@@ -11497,7 +13457,9 @@
       </c>
     </row>
     <row r="22" spans="1:36">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5">
+        <v>6</v>
+      </c>
       <c r="B22" s="5" t="s">
         <v>53</v>
       </c>
@@ -11508,8 +13470,8 @@
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:36">
-      <c r="A23" s="8" t="s">
-        <v>129</v>
+      <c r="A23" s="8">
+        <v>7</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>55</v>
@@ -11523,19 +13485,19 @@
       <c r="E23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AC23" s="10">
+      <c r="AC23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="AD23" s="10">
+      <c r="AD23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="AE23" s="10">
+      <c r="AE23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="AF23" s="10">
+      <c r="AF23" s="11">
         <v>378.7879545454545</v>
       </c>
-      <c r="AG23" s="10">
+      <c r="AG23" s="11">
         <v>378.7879545454545</v>
       </c>
       <c r="AJ23" s="7">
@@ -11544,8 +13506,8 @@
       </c>
     </row>
     <row r="24" spans="1:36">
-      <c r="A24" s="8" t="s">
-        <v>130</v>
+      <c r="A24" s="8">
+        <v>8</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>58</v>
@@ -11561,8 +13523,8 @@
       </c>
     </row>
     <row r="25" spans="1:36">
-      <c r="A25" s="8" t="s">
-        <v>131</v>
+      <c r="A25" s="8">
+        <v>9</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>61</v>
@@ -11576,10 +13538,10 @@
       <c r="E25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="11">
         <v>42.42454545454546</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="11">
         <v>42.42454545454546</v>
       </c>
       <c r="AJ25" s="7">
@@ -11588,8 +13550,8 @@
       </c>
     </row>
     <row r="26" spans="1:36">
-      <c r="A26" s="8" t="s">
-        <v>132</v>
+      <c r="A26" s="8">
+        <v>10</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>63</v>
@@ -11609,8 +13571,8 @@
       </c>
     </row>
     <row r="27" spans="1:36">
-      <c r="A27" s="8" t="s">
-        <v>133</v>
+      <c r="A27" s="8">
+        <v>11</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>65</v>
@@ -11630,8 +13592,8 @@
       </c>
     </row>
     <row r="28" spans="1:36">
-      <c r="A28" s="8" t="s">
-        <v>134</v>
+      <c r="A28" s="8">
+        <v>12</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>67</v>
@@ -11651,7 +13613,9 @@
       </c>
     </row>
     <row r="29" spans="1:36">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5">
+        <v>13</v>
+      </c>
       <c r="B29" s="5" t="s">
         <v>69</v>
       </c>
@@ -11662,8 +13626,8 @@
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:36">
-      <c r="A30" s="8" t="s">
-        <v>129</v>
+      <c r="A30" s="8">
+        <v>14</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>71</v>
@@ -11677,19 +13641,19 @@
       <c r="E30" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="11">
         <v>901.6288636363636</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30" s="11">
         <v>901.6288636363636</v>
       </c>
-      <c r="P30" s="10">
+      <c r="P30" s="11">
         <v>901.6288636363636</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="11">
         <v>901.6288636363636</v>
       </c>
-      <c r="R30" s="10">
+      <c r="R30" s="11">
         <v>901.6288636363636</v>
       </c>
       <c r="AJ30" s="7">
@@ -11698,7 +13662,9 @@
       </c>
     </row>
     <row r="31" spans="1:36">
-      <c r="A31" s="5"/>
+      <c r="A31" s="5">
+        <v>15</v>
+      </c>
       <c r="B31" s="5" t="s">
         <v>73</v>
       </c>
@@ -11709,8 +13675,8 @@
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:36">
-      <c r="A32" s="8" t="s">
-        <v>129</v>
+      <c r="A32" s="8">
+        <v>16</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>75</v>
@@ -11724,7 +13690,7 @@
       <c r="E32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="11">
         <v>5.866</v>
       </c>
       <c r="AJ32" s="7">
@@ -11733,7 +13699,9 @@
       </c>
     </row>
     <row r="33" spans="1:36">
-      <c r="A33" s="5"/>
+      <c r="A33" s="5">
+        <v>17</v>
+      </c>
       <c r="B33" s="5" t="s">
         <v>77</v>
       </c>
@@ -11744,8 +13712,8 @@
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:36">
-      <c r="A34" s="8" t="s">
-        <v>129</v>
+      <c r="A34" s="8">
+        <v>18</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>79</v>
@@ -11765,7 +13733,9 @@
       </c>
     </row>
     <row r="35" spans="1:36">
-      <c r="A35" s="5"/>
+      <c r="A35" s="5">
+        <v>19</v>
+      </c>
       <c r="B35" s="5" t="s">
         <v>81</v>
       </c>
@@ -11776,8 +13746,8 @@
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:36">
-      <c r="A36" s="8" t="s">
-        <v>129</v>
+      <c r="A36" s="8">
+        <v>20</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>83</v>
@@ -11791,7 +13761,7 @@
       <c r="E36" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AG36" s="10">
+      <c r="AG36" s="11">
         <v>22.534</v>
       </c>
       <c r="AJ36" s="7">
@@ -11800,7 +13770,9 @@
       </c>
     </row>
     <row r="37" spans="1:36">
-      <c r="A37" s="5"/>
+      <c r="A37" s="5">
+        <v>21</v>
+      </c>
       <c r="B37" s="5" t="s">
         <v>85</v>
       </c>
@@ -11811,8 +13783,8 @@
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:36">
-      <c r="A38" s="8" t="s">
-        <v>129</v>
+      <c r="A38" s="8">
+        <v>22</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>87</v>
@@ -11826,7 +13798,7 @@
       <c r="E38" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="S38" s="10">
+      <c r="S38" s="11">
         <v>3.866</v>
       </c>
       <c r="AJ38" s="7">
@@ -11835,8 +13807,8 @@
       </c>
     </row>
     <row r="39" spans="1:36">
-      <c r="A39" s="8" t="s">
-        <v>130</v>
+      <c r="A39" s="8">
+        <v>23</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>89</v>
@@ -11879,7 +13851,7 @@
     <mergeCell ref="N14:U14"/>
     <mergeCell ref="V14:AB14"/>
     <mergeCell ref="AC14:AI14"/>
-    <mergeCell ref="A17:AJ17"/>
+    <mergeCell ref="AJ14:AJ16"/>
   </mergeCells>
   <conditionalFormatting sqref="F17:AJ39">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
